--- a/draft/include/figure/vsAmieCharts.xlsx
+++ b/draft/include/figure/vsAmieCharts.xlsx
@@ -123,7 +123,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.108524335273308"/>
+          <c:y val="0.0548926014319809"/>
+          <c:w val="0.844059468789227"/>
+          <c:h val="0.684868735083532"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -131,7 +141,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KDR</c:v>
+            <c:v>RuDiK</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="63500">
@@ -460,11 +470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2105243704"/>
-        <c:axId val="-2139053480"/>
+        <c:axId val="331468408"/>
+        <c:axId val="331447112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2105243704"/>
+        <c:axId val="331468408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="262414.0"/>
@@ -510,12 +520,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139053480"/>
+        <c:crossAx val="331447112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2139053480"/>
+        <c:axId val="331447112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -563,7 +573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105243704"/>
+        <c:crossAx val="331468408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -574,8 +584,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.576566391590432"/>
-          <c:y val="0.0863956245526127"/>
+          <c:x val="0.723305517516832"/>
+          <c:y val="0.0819511811023622"/>
           <c:w val="0.134975393700787"/>
           <c:h val="0.25141329634932"/>
         </c:manualLayout>
@@ -620,7 +630,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.108721294139503"/>
+          <c:y val="0.0550239234449761"/>
+          <c:w val="0.850403061005759"/>
+          <c:h val="0.684114832535885"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -628,7 +648,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KDR</c:v>
+            <c:v>RuDiK</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="63500">
@@ -1071,11 +1091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146382472"/>
-        <c:axId val="-2131108584"/>
+        <c:axId val="338045736"/>
+        <c:axId val="334268200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146382472"/>
+        <c:axId val="338045736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41178.0"/>
@@ -1116,12 +1136,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131108584"/>
+        <c:crossAx val="334268200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2131108584"/>
+        <c:axId val="334268200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1169,7 +1189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146382472"/>
+        <c:crossAx val="338045736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1182,7 +1202,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.66540124671916"/>
           <c:y val="0.504189616848133"/>
-          <c:w val="0.0882166997727825"/>
+          <c:w val="0.136311073638481"/>
           <c:h val="0.211716460083638"/>
         </c:manualLayout>
       </c:layout>
@@ -1222,8 +1242,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1245,15 +1265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1599,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="T68" sqref="T68"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
